--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\FoVObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\FoVObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56164E49-86FE-4D92-8C83-DC2F9D71C0E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="23955" windowHeight="12270"/>
+    <workbookView xWindow="16455" yWindow="150" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,22 +23,32 @@
     <sheet name="Police Departments" sheetId="7" r:id="rId8"/>
     <sheet name="Taxis and Limos" sheetId="8" r:id="rId9"/>
     <sheet name="Population" sheetId="9" r:id="rId10"/>
-    <sheet name="Output by Industry" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="outputfrac_bio">'Output by Industry'!$A$9</definedName>
-    <definedName name="outputfrac_coal">'Output by Industry'!$A$7</definedName>
-    <definedName name="outputfrac_elec">'Output by Industry'!$A$6</definedName>
-    <definedName name="outputfrac_ngps">'Output by Industry'!$A$8</definedName>
-    <definedName name="outputfrac_nonenergy">'Output by Industry'!$A$5</definedName>
-    <definedName name="outputfrac_other">'Output by Industry'!$A$10</definedName>
+    <definedName name="outputfrac_bio">#REF!</definedName>
+    <definedName name="outputfrac_coal">#REF!</definedName>
+    <definedName name="outputfrac_elec">#REF!</definedName>
+    <definedName name="outputfrac_ngps">#REF!</definedName>
+    <definedName name="outputfrac_nonenergy">#REF!</definedName>
+    <definedName name="outputfrac_other">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="305">
   <si>
     <t>LDVs, passenger</t>
   </si>
@@ -2299,42 +2310,9 @@
     <t>Vehicle Exports</t>
   </si>
   <si>
-    <t>nonenergy industries</t>
-  </si>
-  <si>
     <t>labor and consumers</t>
   </si>
   <si>
-    <t>electricity suppliers</t>
-  </si>
-  <si>
-    <t>coal suppliers</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum suppliers</t>
-  </si>
-  <si>
-    <t>biomass and biofuel suppliers</t>
-  </si>
-  <si>
-    <t>other energy suppliers</t>
-  </si>
-  <si>
-    <t>For bibliographic source and methods, see file output_shares_by_industry.xslx</t>
-  </si>
-  <si>
-    <t>in the InputData folder.</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>Industry Category</t>
-  </si>
-  <si>
-    <t>non-energy industries</t>
-  </si>
-  <si>
     <t>In the output tab, we show more decimal places than the source data</t>
   </si>
   <si>
@@ -2345,20 +2323,22 @@
   </si>
   <si>
     <t>Fraction Owned by Entity (dimensionless)</t>
+  </si>
+  <si>
+    <t>domestic industries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="\(\R\)\ #,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;(R)&quot;\ #,##0;&quot;(R) -&quot;#,##0;&quot;(R) &quot;\ 0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2487,6 +2467,14 @@
       <sz val="8"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3081,7 +3069,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3416,66 +3404,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3491,6 +3420,60 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3513,16 +3496,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Data_Sheet1 (2)_1" xfId="5"/>
-    <cellStyle name="Hed Side" xfId="3"/>
-    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4"/>
+    <cellStyle name="Data_Sheet1 (2)_1" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hed Side" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hed Side_Sheet1 (2)_1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Source Text" xfId="7"/>
-    <cellStyle name="Table Title" xfId="1"/>
-    <cellStyle name="Title-1" xfId="2"/>
+    <cellStyle name="Source Text" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Table Title" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Title-1" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3613,6 +3599,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3648,6 +3651,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3823,7 +3843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4138,26 +4158,26 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1"/>
-    <hyperlink ref="B35" r:id="rId2"/>
-    <hyperlink ref="B48" r:id="rId3"/>
-    <hyperlink ref="B54" r:id="rId4"/>
-    <hyperlink ref="B42" r:id="rId5"/>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B54" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -4165,7 +4185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4864,91 +4884,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="151">
-        <v>0.93219819361870848</v>
-      </c>
-      <c r="B5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="151">
-        <v>1.5490855293616566E-2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="151">
-        <v>2.1866536828369144E-3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="151">
-        <v>4.9443136381930888E-2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="151">
-        <v>6.8116102290716575E-4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5242,11 +5179,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5257,44 +5194,26 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="8" width="21.140625" style="113" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="113" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="126" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="150" t="s">
+    <row r="1" spans="1:5" s="126" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="180" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="149" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="149" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="150" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="150" t="s">
+      <c r="E1" s="149" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="150" t="s">
-        <v>301</v>
-      </c>
-      <c r="G1" s="150" t="s">
-        <v>302</v>
-      </c>
-      <c r="H1" s="150" t="s">
-        <v>303</v>
-      </c>
-      <c r="I1" s="150" t="s">
-        <v>304</v>
-      </c>
-      <c r="J1" s="150" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -5313,23 +5232,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -5348,23 +5252,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -5383,23 +5272,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -5418,23 +5292,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -5453,23 +5312,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -5486,21 +5330,6 @@
         <v>0.99843636087933096</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
         <v>0</v>
       </c>
     </row>
@@ -5511,11 +5340,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5524,44 +5353,26 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="8" width="21.140625" style="113" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="113" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="150" t="s">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="180" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="149" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="149" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="150" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="150" t="s">
+      <c r="E1" s="149" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="150" t="s">
-        <v>301</v>
-      </c>
-      <c r="G1" s="150" t="s">
-        <v>302</v>
-      </c>
-      <c r="H1" s="150" t="s">
-        <v>303</v>
-      </c>
-      <c r="I1" s="150" t="s">
-        <v>304</v>
-      </c>
-      <c r="J1" s="150" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -5570,8 +5381,8 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>Results!$D8-SUM(F2:J2)</f>
-        <v>0.93219819361870848</v>
+        <f>Results!$D8</f>
+        <v>1</v>
       </c>
       <c r="D2" s="75">
         <f>Results!E8</f>
@@ -5580,28 +5391,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>Results!$D8*outputfrac_elec</f>
-        <v>1.5490855293616566E-2</v>
-      </c>
-      <c r="G2">
-        <f>Results!$D8*outputfrac_coal</f>
-        <v>2.1866536828369144E-3</v>
-      </c>
-      <c r="H2">
-        <f>Results!$D8*outputfrac_ngps</f>
-        <v>4.9443136381930888E-2</v>
-      </c>
-      <c r="I2">
-        <f>Results!$D8*outputfrac_bio</f>
-        <v>6.8116102290716575E-4</v>
-      </c>
-      <c r="J2">
-        <f>Results!$D8*outputfrac_other</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -5610,8 +5401,8 @@
         <v>5.2668167033115575E-2</v>
       </c>
       <c r="C3">
-        <f>Results!$D9-SUM(F3:J3)</f>
-        <v>0.88310102344922969</v>
+        <f>Results!$D9</f>
+        <v>0.94733183296688439</v>
       </c>
       <c r="D3" s="75">
         <f>Results!E9</f>
@@ -5620,28 +5411,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <f>Results!$D9*outputfrac_elec</f>
-        <v>1.4674980339526546E-2</v>
-      </c>
-      <c r="G3">
-        <f>Results!$D9*outputfrac_coal</f>
-        <v>2.0714866414256825E-3</v>
-      </c>
-      <c r="H3">
-        <f>Results!$D9*outputfrac_ngps</f>
-        <v>4.6839057016326235E-2</v>
-      </c>
-      <c r="I3">
-        <f>Results!$D9*outputfrac_bio</f>
-        <v>6.4528552037624329E-4</v>
-      </c>
-      <c r="J3">
-        <f>Results!$D9*outputfrac_other</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -5649,8 +5420,8 @@
         <f>Results!C10</f>
         <v>0</v>
       </c>
-      <c r="C4" s="152">
-        <f>Results!$D10-SUM(F4:J4)</f>
+      <c r="C4">
+        <f>Results!$D10</f>
         <v>1</v>
       </c>
       <c r="D4" s="75">
@@ -5660,23 +5431,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -5685,8 +5441,8 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f>Results!$D11-SUM(F5:J5)</f>
-        <v>0.94837020993523224</v>
+        <f>Results!$D11</f>
+        <v>1</v>
       </c>
       <c r="D5" s="75">
         <f>Results!E11</f>
@@ -5695,25 +5451,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f>Results!$D11*outputfrac_coal</f>
-        <v>2.1866536828369144E-3</v>
-      </c>
-      <c r="H5">
-        <f>Results!$D11*outputfrac_ngps</f>
-        <v>4.9443136381930888E-2</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -5722,8 +5461,8 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>Results!$D12-SUM(F6:J6)</f>
-        <v>0.95055686361806913</v>
+        <f>Results!$D12</f>
+        <v>1</v>
       </c>
       <c r="D6" s="75">
         <f>Results!E12</f>
@@ -5732,24 +5471,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>Results!$D12*outputfrac_ngps</f>
-        <v>4.9443136381930888E-2</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -5757,8 +5480,8 @@
         <f>Results!C13</f>
         <v>0</v>
       </c>
-      <c r="C7" s="152">
-        <f>Results!$D13-SUM(F7:J7)</f>
+      <c r="C7">
+        <f>Results!$D13</f>
         <v>0</v>
       </c>
       <c r="D7" s="75">
@@ -5768,36 +5491,18 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C7 C4" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="A19" activeCellId="1" sqref="A16:XFD16 A19:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5811,39 +5516,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="172"/>
-      <c r="AE1" s="172"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
     </row>
     <row r="2" spans="1:31" s="128" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
@@ -8767,24 +8472,24 @@
       </c>
     </row>
     <row r="35" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="173" t="s">
+      <c r="A35" s="152" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="173"/>
-      <c r="C35" s="173"/>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="173"/>
-      <c r="M35" s="173"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="152"/>
       <c r="Q35" s="68"/>
       <c r="R35" s="68"/>
       <c r="S35" s="68"/>
@@ -8801,1558 +8506,1609 @@
       <c r="AE35" s="127"/>
     </row>
     <row r="36" spans="1:31" s="69" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="174"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="174"/>
-      <c r="L36" s="174"/>
-      <c r="M36" s="174"/>
-      <c r="N36" s="174"/>
-      <c r="O36" s="174"/>
-      <c r="P36" s="174"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
       <c r="Q36" s="140"/>
       <c r="R36" s="141"/>
       <c r="S36" s="141"/>
       <c r="T36" s="142"/>
     </row>
     <row r="37" spans="1:31" s="145" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="175" t="s">
+      <c r="A37" s="154" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="175"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="175"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="175"/>
-      <c r="L37" s="175"/>
-      <c r="M37" s="175"/>
-      <c r="N37" s="175"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="175"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="154"/>
       <c r="Q37" s="143"/>
       <c r="R37" s="143"/>
       <c r="S37" s="143"/>
       <c r="T37" s="144"/>
     </row>
     <row r="38" spans="1:31" s="145" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="170" t="s">
+      <c r="A38" s="155" t="s">
         <v>222</v>
       </c>
-      <c r="B38" s="170"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
-      <c r="N38" s="170"/>
-      <c r="O38" s="170"/>
-      <c r="P38" s="170"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="155"/>
       <c r="Q38" s="143"/>
       <c r="R38" s="143"/>
       <c r="S38" s="143"/>
       <c r="T38" s="144"/>
     </row>
     <row r="39" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="171" t="s">
+      <c r="A39" s="150" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="171"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171"/>
-      <c r="L39" s="171"/>
-      <c r="M39" s="171"/>
-      <c r="N39" s="171"/>
-      <c r="O39" s="171"/>
-      <c r="P39" s="171"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
       <c r="Q39" s="143"/>
       <c r="R39" s="143"/>
       <c r="S39" s="143"/>
       <c r="T39" s="144"/>
     </row>
     <row r="40" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="169" t="s">
+      <c r="A40" s="157" t="s">
         <v>224</v>
       </c>
-      <c r="B40" s="169"/>
-      <c r="C40" s="169"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="169"/>
-      <c r="K40" s="169"/>
-      <c r="L40" s="169"/>
-      <c r="M40" s="169"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="169"/>
-      <c r="P40" s="169"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="157"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="157"/>
+      <c r="K40" s="157"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="157"/>
+      <c r="O40" s="157"/>
+      <c r="P40" s="157"/>
       <c r="Q40" s="143"/>
       <c r="R40" s="143"/>
       <c r="S40" s="143"/>
       <c r="T40" s="144"/>
     </row>
     <row r="41" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="169" t="s">
+      <c r="A41" s="157" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="169"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="169"/>
-      <c r="I41" s="169"/>
-      <c r="J41" s="169"/>
-      <c r="K41" s="169"/>
-      <c r="L41" s="169"/>
-      <c r="M41" s="169"/>
-      <c r="N41" s="169"/>
-      <c r="O41" s="169"/>
-      <c r="P41" s="169"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="157"/>
+      <c r="L41" s="157"/>
+      <c r="M41" s="157"/>
+      <c r="N41" s="157"/>
+      <c r="O41" s="157"/>
+      <c r="P41" s="157"/>
       <c r="Q41" s="143"/>
       <c r="R41" s="143"/>
       <c r="S41" s="143"/>
       <c r="T41" s="144"/>
     </row>
     <row r="42" spans="1:31" s="145" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="170" t="s">
+      <c r="A42" s="155" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170"/>
-      <c r="M42" s="170"/>
-      <c r="N42" s="170"/>
-      <c r="O42" s="170"/>
-      <c r="P42" s="170"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
+      <c r="O42" s="155"/>
+      <c r="P42" s="155"/>
       <c r="T42" s="144"/>
     </row>
     <row r="43" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="150" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="171"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
-      <c r="L43" s="171"/>
-      <c r="M43" s="171"/>
-      <c r="N43" s="171"/>
-      <c r="O43" s="171"/>
-      <c r="P43" s="171"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
+      <c r="N43" s="150"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="150"/>
       <c r="T43" s="144"/>
     </row>
     <row r="44" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="171" t="s">
+      <c r="A44" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
-      <c r="L44" s="171"/>
-      <c r="M44" s="171"/>
-      <c r="N44" s="171"/>
-      <c r="O44" s="171"/>
-      <c r="P44" s="171"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
+      <c r="K44" s="150"/>
+      <c r="L44" s="150"/>
+      <c r="M44" s="150"/>
+      <c r="N44" s="150"/>
+      <c r="O44" s="150"/>
+      <c r="P44" s="150"/>
       <c r="T44" s="144"/>
     </row>
     <row r="45" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="158" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="162"/>
-      <c r="C45" s="162"/>
-      <c r="D45" s="162"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="162"/>
-      <c r="G45" s="162"/>
-      <c r="H45" s="162"/>
-      <c r="I45" s="162"/>
-      <c r="J45" s="162"/>
-      <c r="K45" s="162"/>
-      <c r="L45" s="162"/>
-      <c r="M45" s="162"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="162"/>
-      <c r="P45" s="162"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
+      <c r="J45" s="158"/>
+      <c r="K45" s="158"/>
+      <c r="L45" s="158"/>
+      <c r="M45" s="158"/>
+      <c r="N45" s="158"/>
+      <c r="O45" s="158"/>
+      <c r="P45" s="158"/>
       <c r="T45" s="144"/>
     </row>
     <row r="46" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="169" t="s">
+      <c r="A46" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="169"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="169"/>
-      <c r="G46" s="169"/>
-      <c r="H46" s="169"/>
-      <c r="I46" s="169"/>
-      <c r="J46" s="169"/>
-      <c r="K46" s="169"/>
-      <c r="L46" s="169"/>
-      <c r="M46" s="169"/>
-      <c r="N46" s="169"/>
-      <c r="O46" s="169"/>
-      <c r="P46" s="169"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="157"/>
+      <c r="K46" s="157"/>
+      <c r="L46" s="157"/>
+      <c r="M46" s="157"/>
+      <c r="N46" s="157"/>
+      <c r="O46" s="157"/>
+      <c r="P46" s="157"/>
       <c r="T46" s="144"/>
     </row>
     <row r="47" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="157" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="169"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="169"/>
-      <c r="I47" s="169"/>
-      <c r="J47" s="169"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="169"/>
-      <c r="M47" s="169"/>
-      <c r="N47" s="169"/>
-      <c r="O47" s="169"/>
-      <c r="P47" s="169"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157"/>
+      <c r="K47" s="157"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="157"/>
+      <c r="O47" s="157"/>
+      <c r="P47" s="157"/>
       <c r="T47" s="144"/>
     </row>
     <row r="48" spans="1:31" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="169" t="s">
+      <c r="A48" s="157" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="169"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="169"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="169"/>
-      <c r="I48" s="169"/>
-      <c r="J48" s="169"/>
-      <c r="K48" s="169"/>
-      <c r="L48" s="169"/>
-      <c r="M48" s="169"/>
-      <c r="N48" s="169"/>
-      <c r="O48" s="169"/>
-      <c r="P48" s="169"/>
+      <c r="B48" s="157"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="157"/>
+      <c r="K48" s="157"/>
+      <c r="L48" s="157"/>
+      <c r="M48" s="157"/>
+      <c r="N48" s="157"/>
+      <c r="O48" s="157"/>
+      <c r="P48" s="157"/>
       <c r="T48" s="144"/>
     </row>
     <row r="49" spans="1:20" s="145" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="169" t="s">
+      <c r="A49" s="157" t="s">
         <v>233</v>
       </c>
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="169"/>
-      <c r="G49" s="169"/>
-      <c r="H49" s="169"/>
-      <c r="I49" s="169"/>
-      <c r="J49" s="169"/>
-      <c r="K49" s="169"/>
-      <c r="L49" s="169"/>
-      <c r="M49" s="169"/>
-      <c r="N49" s="169"/>
-      <c r="O49" s="169"/>
-      <c r="P49" s="169"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="157"/>
+      <c r="K49" s="157"/>
+      <c r="L49" s="157"/>
+      <c r="M49" s="157"/>
+      <c r="N49" s="157"/>
+      <c r="O49" s="157"/>
+      <c r="P49" s="157"/>
       <c r="T49" s="144"/>
     </row>
     <row r="50" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="169" t="s">
+      <c r="A50" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
-      <c r="E50" s="169"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
-      <c r="J50" s="169"/>
-      <c r="K50" s="169"/>
-      <c r="L50" s="169"/>
-      <c r="M50" s="169"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="169"/>
-      <c r="P50" s="169"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="157"/>
+      <c r="M50" s="157"/>
+      <c r="N50" s="157"/>
+      <c r="O50" s="157"/>
+      <c r="P50" s="157"/>
       <c r="T50" s="144"/>
     </row>
     <row r="51" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="168"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="168"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="168"/>
-      <c r="K51" s="168"/>
-      <c r="L51" s="168"/>
-      <c r="M51" s="168"/>
-      <c r="N51" s="168"/>
-      <c r="O51" s="168"/>
-      <c r="P51" s="168"/>
+      <c r="A51" s="156"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="156"/>
+      <c r="M51" s="156"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="156"/>
+      <c r="P51" s="156"/>
       <c r="T51" s="147"/>
     </row>
     <row r="52" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="161" t="s">
+      <c r="A52" s="160" t="s">
         <v>235</v>
       </c>
-      <c r="B52" s="161"/>
-      <c r="C52" s="161"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="161"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="161"/>
-      <c r="J52" s="161"/>
-      <c r="K52" s="161"/>
-      <c r="L52" s="161"/>
-      <c r="M52" s="161"/>
-      <c r="N52" s="161"/>
-      <c r="O52" s="161"/>
-      <c r="P52" s="161"/>
+      <c r="B52" s="160"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="160"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="160"/>
+      <c r="L52" s="160"/>
+      <c r="M52" s="160"/>
+      <c r="N52" s="160"/>
+      <c r="O52" s="160"/>
+      <c r="P52" s="160"/>
       <c r="T52" s="144"/>
     </row>
     <row r="53" spans="1:20" s="145" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="162" t="s">
+      <c r="A53" s="158" t="s">
         <v>236</v>
       </c>
-      <c r="B53" s="162"/>
-      <c r="C53" s="162"/>
-      <c r="D53" s="162"/>
-      <c r="E53" s="162"/>
-      <c r="F53" s="162"/>
-      <c r="G53" s="162"/>
-      <c r="H53" s="162"/>
-      <c r="I53" s="162"/>
-      <c r="J53" s="162"/>
-      <c r="K53" s="162"/>
-      <c r="L53" s="162"/>
-      <c r="M53" s="162"/>
-      <c r="N53" s="162"/>
-      <c r="O53" s="162"/>
-      <c r="P53" s="162"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="158"/>
+      <c r="J53" s="158"/>
+      <c r="K53" s="158"/>
+      <c r="L53" s="158"/>
+      <c r="M53" s="158"/>
+      <c r="N53" s="158"/>
+      <c r="O53" s="158"/>
+      <c r="P53" s="158"/>
       <c r="T53" s="144"/>
     </row>
     <row r="54" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="163" t="s">
+      <c r="A54" s="161" t="s">
         <v>237</v>
       </c>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
-      <c r="E54" s="163"/>
-      <c r="F54" s="163"/>
-      <c r="G54" s="163"/>
-      <c r="H54" s="163"/>
-      <c r="I54" s="163"/>
-      <c r="J54" s="163"/>
-      <c r="K54" s="163"/>
-      <c r="L54" s="163"/>
-      <c r="M54" s="163"/>
-      <c r="N54" s="163"/>
-      <c r="O54" s="163"/>
-      <c r="P54" s="163"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="161"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="161"/>
+      <c r="L54" s="161"/>
+      <c r="M54" s="161"/>
+      <c r="N54" s="161"/>
+      <c r="O54" s="161"/>
+      <c r="P54" s="161"/>
       <c r="T54" s="144"/>
     </row>
     <row r="55" spans="1:20" s="145" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="164" t="s">
+      <c r="A55" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="B55" s="164"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="164"/>
-      <c r="L55" s="164"/>
-      <c r="M55" s="164"/>
-      <c r="N55" s="164"/>
-      <c r="O55" s="164"/>
-      <c r="P55" s="164"/>
+      <c r="B55" s="162"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="162"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="162"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="162"/>
+      <c r="K55" s="162"/>
+      <c r="L55" s="162"/>
+      <c r="M55" s="162"/>
+      <c r="N55" s="162"/>
+      <c r="O55" s="162"/>
+      <c r="P55" s="162"/>
       <c r="T55" s="144"/>
     </row>
     <row r="56" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="163" t="s">
+      <c r="A56" s="161" t="s">
         <v>239</v>
       </c>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
-      <c r="E56" s="163"/>
-      <c r="F56" s="163"/>
-      <c r="G56" s="163"/>
-      <c r="H56" s="163"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="163"/>
-      <c r="K56" s="163"/>
-      <c r="L56" s="163"/>
-      <c r="M56" s="163"/>
-      <c r="N56" s="163"/>
-      <c r="O56" s="163"/>
-      <c r="P56" s="163"/>
+      <c r="B56" s="161"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="161"/>
+      <c r="K56" s="161"/>
+      <c r="L56" s="161"/>
+      <c r="M56" s="161"/>
+      <c r="N56" s="161"/>
+      <c r="O56" s="161"/>
+      <c r="P56" s="161"/>
       <c r="T56" s="147"/>
     </row>
     <row r="57" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="163" t="s">
+      <c r="A57" s="161" t="s">
         <v>240</v>
       </c>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
-      <c r="E57" s="163"/>
-      <c r="F57" s="163"/>
-      <c r="G57" s="163"/>
-      <c r="H57" s="163"/>
-      <c r="I57" s="163"/>
-      <c r="J57" s="163"/>
-      <c r="K57" s="163"/>
-      <c r="L57" s="163"/>
-      <c r="M57" s="163"/>
-      <c r="N57" s="163"/>
-      <c r="O57" s="163"/>
-      <c r="P57" s="163"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
+      <c r="I57" s="161"/>
+      <c r="J57" s="161"/>
+      <c r="K57" s="161"/>
+      <c r="L57" s="161"/>
+      <c r="M57" s="161"/>
+      <c r="N57" s="161"/>
+      <c r="O57" s="161"/>
+      <c r="P57" s="161"/>
       <c r="T57" s="147"/>
     </row>
     <row r="58" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="165"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="165"/>
-      <c r="K58" s="165"/>
-      <c r="L58" s="165"/>
-      <c r="M58" s="165"/>
-      <c r="N58" s="165"/>
-      <c r="O58" s="165"/>
-      <c r="P58" s="165"/>
+      <c r="A58" s="163"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="163"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="163"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="163"/>
+      <c r="K58" s="163"/>
+      <c r="L58" s="163"/>
+      <c r="M58" s="163"/>
+      <c r="N58" s="163"/>
+      <c r="O58" s="163"/>
+      <c r="P58" s="163"/>
       <c r="T58" s="147"/>
     </row>
     <row r="59" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="166" t="s">
+      <c r="A59" s="164" t="s">
         <v>241</v>
       </c>
-      <c r="B59" s="166"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="166"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="166"/>
-      <c r="K59" s="166"/>
-      <c r="L59" s="166"/>
-      <c r="M59" s="166"/>
-      <c r="N59" s="166"/>
-      <c r="O59" s="166"/>
-      <c r="P59" s="166"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="164"/>
+      <c r="L59" s="164"/>
+      <c r="M59" s="164"/>
+      <c r="N59" s="164"/>
+      <c r="O59" s="164"/>
+      <c r="P59" s="164"/>
       <c r="T59" s="147"/>
     </row>
     <row r="60" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="166" t="s">
+      <c r="A60" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="166"/>
-      <c r="C60" s="166"/>
-      <c r="D60" s="166"/>
-      <c r="E60" s="166"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="166"/>
-      <c r="H60" s="166"/>
-      <c r="I60" s="166"/>
-      <c r="J60" s="166"/>
-      <c r="K60" s="166"/>
-      <c r="L60" s="166"/>
-      <c r="M60" s="166"/>
-      <c r="N60" s="166"/>
-      <c r="O60" s="166"/>
-      <c r="P60" s="166"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="164"/>
+      <c r="K60" s="164"/>
+      <c r="L60" s="164"/>
+      <c r="M60" s="164"/>
+      <c r="N60" s="164"/>
+      <c r="O60" s="164"/>
+      <c r="P60" s="164"/>
       <c r="T60" s="144"/>
     </row>
     <row r="61" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="154" t="s">
+      <c r="A61" s="165" t="s">
         <v>243</v>
       </c>
-      <c r="B61" s="154"/>
-      <c r="C61" s="154"/>
-      <c r="D61" s="154"/>
-      <c r="E61" s="154"/>
-      <c r="F61" s="154"/>
-      <c r="G61" s="154"/>
-      <c r="H61" s="154"/>
-      <c r="I61" s="154"/>
-      <c r="J61" s="154"/>
-      <c r="K61" s="154"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="154"/>
-      <c r="N61" s="154"/>
-      <c r="O61" s="154"/>
-      <c r="P61" s="154"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="165"/>
+      <c r="F61" s="165"/>
+      <c r="G61" s="165"/>
+      <c r="H61" s="165"/>
+      <c r="I61" s="165"/>
+      <c r="J61" s="165"/>
+      <c r="K61" s="165"/>
+      <c r="L61" s="165"/>
+      <c r="M61" s="165"/>
+      <c r="N61" s="165"/>
+      <c r="O61" s="165"/>
+      <c r="P61" s="165"/>
       <c r="T61" s="147"/>
     </row>
     <row r="62" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="167" t="s">
+      <c r="A62" s="166" t="s">
         <v>244</v>
       </c>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="167"/>
-      <c r="F62" s="167"/>
-      <c r="G62" s="167"/>
-      <c r="H62" s="167"/>
-      <c r="I62" s="167"/>
-      <c r="J62" s="167"/>
-      <c r="K62" s="167"/>
-      <c r="L62" s="167"/>
-      <c r="M62" s="167"/>
-      <c r="N62" s="167"/>
-      <c r="O62" s="167"/>
-      <c r="P62" s="167"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="166"/>
+      <c r="E62" s="166"/>
+      <c r="F62" s="166"/>
+      <c r="G62" s="166"/>
+      <c r="H62" s="166"/>
+      <c r="I62" s="166"/>
+      <c r="J62" s="166"/>
+      <c r="K62" s="166"/>
+      <c r="L62" s="166"/>
+      <c r="M62" s="166"/>
+      <c r="N62" s="166"/>
+      <c r="O62" s="166"/>
+      <c r="P62" s="166"/>
       <c r="T62" s="147"/>
     </row>
     <row r="63" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="155" t="s">
+      <c r="A63" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="B63" s="155"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="155"/>
-      <c r="H63" s="155"/>
-      <c r="I63" s="155"/>
-      <c r="J63" s="155"/>
-      <c r="K63" s="155"/>
-      <c r="L63" s="155"/>
-      <c r="M63" s="155"/>
-      <c r="N63" s="155"/>
-      <c r="O63" s="155"/>
-      <c r="P63" s="155"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="159"/>
+      <c r="E63" s="159"/>
+      <c r="F63" s="159"/>
+      <c r="G63" s="159"/>
+      <c r="H63" s="159"/>
+      <c r="I63" s="159"/>
+      <c r="J63" s="159"/>
+      <c r="K63" s="159"/>
+      <c r="L63" s="159"/>
+      <c r="M63" s="159"/>
+      <c r="N63" s="159"/>
+      <c r="O63" s="159"/>
+      <c r="P63" s="159"/>
       <c r="T63" s="147"/>
     </row>
     <row r="64" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="155" t="s">
+      <c r="A64" s="159" t="s">
         <v>246</v>
       </c>
-      <c r="B64" s="155"/>
-      <c r="C64" s="155"/>
-      <c r="D64" s="155"/>
-      <c r="E64" s="155"/>
-      <c r="F64" s="155"/>
-      <c r="G64" s="155"/>
-      <c r="H64" s="155"/>
-      <c r="I64" s="155"/>
-      <c r="J64" s="155"/>
-      <c r="K64" s="155"/>
-      <c r="L64" s="155"/>
-      <c r="M64" s="155"/>
-      <c r="N64" s="155"/>
-      <c r="O64" s="155"/>
-      <c r="P64" s="155"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="159"/>
+      <c r="H64" s="159"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="159"/>
+      <c r="K64" s="159"/>
+      <c r="L64" s="159"/>
+      <c r="M64" s="159"/>
+      <c r="N64" s="159"/>
+      <c r="O64" s="159"/>
+      <c r="P64" s="159"/>
       <c r="T64" s="147"/>
     </row>
     <row r="65" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="155" t="s">
+      <c r="A65" s="159" t="s">
         <v>247</v>
       </c>
-      <c r="B65" s="155"/>
-      <c r="C65" s="155"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="155"/>
-      <c r="H65" s="155"/>
-      <c r="I65" s="155"/>
-      <c r="J65" s="155"/>
-      <c r="K65" s="155"/>
-      <c r="L65" s="155"/>
-      <c r="M65" s="155"/>
-      <c r="N65" s="155"/>
-      <c r="O65" s="155"/>
-      <c r="P65" s="155"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="159"/>
+      <c r="H65" s="159"/>
+      <c r="I65" s="159"/>
+      <c r="J65" s="159"/>
+      <c r="K65" s="159"/>
+      <c r="L65" s="159"/>
+      <c r="M65" s="159"/>
+      <c r="N65" s="159"/>
+      <c r="O65" s="159"/>
+      <c r="P65" s="159"/>
       <c r="T65" s="147"/>
     </row>
     <row r="66" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="155" t="s">
+      <c r="A66" s="159" t="s">
         <v>248</v>
       </c>
-      <c r="B66" s="155"/>
-      <c r="C66" s="155"/>
-      <c r="D66" s="155"/>
-      <c r="E66" s="155"/>
-      <c r="F66" s="155"/>
-      <c r="G66" s="155"/>
-      <c r="H66" s="155"/>
-      <c r="I66" s="155"/>
-      <c r="J66" s="155"/>
-      <c r="K66" s="155"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="155"/>
-      <c r="N66" s="155"/>
-      <c r="O66" s="155"/>
-      <c r="P66" s="155"/>
+      <c r="B66" s="159"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="159"/>
+      <c r="G66" s="159"/>
+      <c r="H66" s="159"/>
+      <c r="I66" s="159"/>
+      <c r="J66" s="159"/>
+      <c r="K66" s="159"/>
+      <c r="L66" s="159"/>
+      <c r="M66" s="159"/>
+      <c r="N66" s="159"/>
+      <c r="O66" s="159"/>
+      <c r="P66" s="159"/>
       <c r="T66" s="147"/>
     </row>
     <row r="67" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="155" t="s">
+      <c r="A67" s="159" t="s">
         <v>249</v>
       </c>
-      <c r="B67" s="155"/>
-      <c r="C67" s="155"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="155"/>
-      <c r="F67" s="155"/>
-      <c r="G67" s="155"/>
-      <c r="H67" s="155"/>
-      <c r="I67" s="155"/>
-      <c r="J67" s="155"/>
-      <c r="K67" s="155"/>
-      <c r="L67" s="155"/>
-      <c r="M67" s="155"/>
-      <c r="N67" s="155"/>
-      <c r="O67" s="155"/>
-      <c r="P67" s="155"/>
+      <c r="B67" s="159"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="159"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="159"/>
+      <c r="I67" s="159"/>
+      <c r="J67" s="159"/>
+      <c r="K67" s="159"/>
+      <c r="L67" s="159"/>
+      <c r="M67" s="159"/>
+      <c r="N67" s="159"/>
+      <c r="O67" s="159"/>
+      <c r="P67" s="159"/>
       <c r="T67" s="147"/>
     </row>
     <row r="68" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="154" t="s">
+      <c r="A68" s="165" t="s">
         <v>250</v>
       </c>
-      <c r="B68" s="154"/>
-      <c r="C68" s="154"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="154"/>
-      <c r="I68" s="154"/>
-      <c r="J68" s="154"/>
-      <c r="K68" s="154"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="154"/>
-      <c r="N68" s="154"/>
-      <c r="O68" s="154"/>
-      <c r="P68" s="154"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="165"/>
+      <c r="M68" s="165"/>
+      <c r="N68" s="165"/>
+      <c r="O68" s="165"/>
+      <c r="P68" s="165"/>
       <c r="T68" s="147"/>
     </row>
     <row r="69" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="155" t="s">
+      <c r="A69" s="159" t="s">
         <v>251</v>
       </c>
-      <c r="B69" s="155"/>
-      <c r="C69" s="155"/>
-      <c r="D69" s="155"/>
-      <c r="E69" s="155"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="155"/>
-      <c r="H69" s="155"/>
-      <c r="I69" s="155"/>
-      <c r="J69" s="155"/>
-      <c r="K69" s="155"/>
-      <c r="L69" s="155"/>
-      <c r="M69" s="155"/>
-      <c r="N69" s="155"/>
-      <c r="O69" s="155"/>
-      <c r="P69" s="155"/>
+      <c r="B69" s="159"/>
+      <c r="C69" s="159"/>
+      <c r="D69" s="159"/>
+      <c r="E69" s="159"/>
+      <c r="F69" s="159"/>
+      <c r="G69" s="159"/>
+      <c r="H69" s="159"/>
+      <c r="I69" s="159"/>
+      <c r="J69" s="159"/>
+      <c r="K69" s="159"/>
+      <c r="L69" s="159"/>
+      <c r="M69" s="159"/>
+      <c r="N69" s="159"/>
+      <c r="O69" s="159"/>
+      <c r="P69" s="159"/>
       <c r="T69" s="147"/>
     </row>
     <row r="70" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="155" t="s">
+      <c r="A70" s="159" t="s">
         <v>252</v>
       </c>
-      <c r="B70" s="155"/>
-      <c r="C70" s="155"/>
-      <c r="D70" s="155"/>
-      <c r="E70" s="155"/>
-      <c r="F70" s="155"/>
-      <c r="G70" s="155"/>
-      <c r="H70" s="155"/>
-      <c r="I70" s="155"/>
-      <c r="J70" s="155"/>
-      <c r="K70" s="155"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
-      <c r="N70" s="155"/>
-      <c r="O70" s="155"/>
-      <c r="P70" s="155"/>
+      <c r="B70" s="159"/>
+      <c r="C70" s="159"/>
+      <c r="D70" s="159"/>
+      <c r="E70" s="159"/>
+      <c r="F70" s="159"/>
+      <c r="G70" s="159"/>
+      <c r="H70" s="159"/>
+      <c r="I70" s="159"/>
+      <c r="J70" s="159"/>
+      <c r="K70" s="159"/>
+      <c r="L70" s="159"/>
+      <c r="M70" s="159"/>
+      <c r="N70" s="159"/>
+      <c r="O70" s="159"/>
+      <c r="P70" s="159"/>
       <c r="T70" s="147"/>
     </row>
     <row r="71" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="155" t="s">
+      <c r="A71" s="159" t="s">
         <v>253</v>
       </c>
-      <c r="B71" s="155"/>
-      <c r="C71" s="155"/>
-      <c r="D71" s="155"/>
-      <c r="E71" s="155"/>
-      <c r="F71" s="155"/>
-      <c r="G71" s="155"/>
-      <c r="H71" s="155"/>
-      <c r="I71" s="155"/>
-      <c r="J71" s="155"/>
-      <c r="K71" s="155"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
-      <c r="N71" s="155"/>
-      <c r="O71" s="155"/>
-      <c r="P71" s="155"/>
+      <c r="B71" s="159"/>
+      <c r="C71" s="159"/>
+      <c r="D71" s="159"/>
+      <c r="E71" s="159"/>
+      <c r="F71" s="159"/>
+      <c r="G71" s="159"/>
+      <c r="H71" s="159"/>
+      <c r="I71" s="159"/>
+      <c r="J71" s="159"/>
+      <c r="K71" s="159"/>
+      <c r="L71" s="159"/>
+      <c r="M71" s="159"/>
+      <c r="N71" s="159"/>
+      <c r="O71" s="159"/>
+      <c r="P71" s="159"/>
       <c r="T71" s="147"/>
     </row>
     <row r="72" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="155" t="s">
+      <c r="A72" s="159" t="s">
         <v>254</v>
       </c>
-      <c r="B72" s="155"/>
-      <c r="C72" s="155"/>
-      <c r="D72" s="155"/>
-      <c r="E72" s="155"/>
-      <c r="F72" s="155"/>
-      <c r="G72" s="155"/>
-      <c r="H72" s="155"/>
-      <c r="I72" s="155"/>
-      <c r="J72" s="155"/>
-      <c r="K72" s="155"/>
-      <c r="L72" s="155"/>
-      <c r="M72" s="155"/>
-      <c r="N72" s="155"/>
-      <c r="O72" s="155"/>
-      <c r="P72" s="155"/>
+      <c r="B72" s="159"/>
+      <c r="C72" s="159"/>
+      <c r="D72" s="159"/>
+      <c r="E72" s="159"/>
+      <c r="F72" s="159"/>
+      <c r="G72" s="159"/>
+      <c r="H72" s="159"/>
+      <c r="I72" s="159"/>
+      <c r="J72" s="159"/>
+      <c r="K72" s="159"/>
+      <c r="L72" s="159"/>
+      <c r="M72" s="159"/>
+      <c r="N72" s="159"/>
+      <c r="O72" s="159"/>
+      <c r="P72" s="159"/>
       <c r="T72" s="147"/>
     </row>
     <row r="73" spans="1:20" s="146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="155" t="s">
+      <c r="A73" s="159" t="s">
         <v>255</v>
       </c>
-      <c r="B73" s="155"/>
-      <c r="C73" s="155"/>
-      <c r="D73" s="155"/>
-      <c r="E73" s="155"/>
-      <c r="F73" s="155"/>
-      <c r="G73" s="155"/>
-      <c r="H73" s="155"/>
-      <c r="I73" s="155"/>
-      <c r="J73" s="155"/>
-      <c r="K73" s="155"/>
-      <c r="L73" s="155"/>
-      <c r="M73" s="155"/>
-      <c r="N73" s="155"/>
-      <c r="O73" s="155"/>
-      <c r="P73" s="155"/>
+      <c r="B73" s="159"/>
+      <c r="C73" s="159"/>
+      <c r="D73" s="159"/>
+      <c r="E73" s="159"/>
+      <c r="F73" s="159"/>
+      <c r="G73" s="159"/>
+      <c r="H73" s="159"/>
+      <c r="I73" s="159"/>
+      <c r="J73" s="159"/>
+      <c r="K73" s="159"/>
+      <c r="L73" s="159"/>
+      <c r="M73" s="159"/>
+      <c r="N73" s="159"/>
+      <c r="O73" s="159"/>
+      <c r="P73" s="159"/>
       <c r="T73" s="147"/>
     </row>
     <row r="74" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="156" t="s">
+      <c r="A74" s="167" t="s">
         <v>256</v>
       </c>
-      <c r="B74" s="156"/>
-      <c r="C74" s="156"/>
-      <c r="D74" s="156"/>
-      <c r="E74" s="156"/>
-      <c r="F74" s="156"/>
-      <c r="G74" s="156"/>
-      <c r="H74" s="156"/>
-      <c r="I74" s="156"/>
-      <c r="J74" s="156"/>
-      <c r="K74" s="156"/>
-      <c r="L74" s="156"/>
-      <c r="M74" s="156"/>
-      <c r="N74" s="156"/>
-      <c r="O74" s="156"/>
-      <c r="P74" s="156"/>
+      <c r="B74" s="167"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
+      <c r="I74" s="167"/>
+      <c r="J74" s="167"/>
+      <c r="K74" s="167"/>
+      <c r="L74" s="167"/>
+      <c r="M74" s="167"/>
+      <c r="N74" s="167"/>
+      <c r="O74" s="167"/>
+      <c r="P74" s="167"/>
       <c r="T74" s="147"/>
     </row>
     <row r="75" spans="1:20" s="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="154" t="s">
+      <c r="A75" s="165" t="s">
         <v>257</v>
       </c>
-      <c r="B75" s="154"/>
-      <c r="C75" s="154"/>
-      <c r="D75" s="154"/>
-      <c r="E75" s="154"/>
-      <c r="F75" s="154"/>
-      <c r="G75" s="154"/>
-      <c r="H75" s="154"/>
-      <c r="I75" s="154"/>
-      <c r="J75" s="154"/>
-      <c r="K75" s="154"/>
-      <c r="L75" s="154"/>
-      <c r="M75" s="154"/>
-      <c r="N75" s="154"/>
-      <c r="O75" s="154"/>
-      <c r="P75" s="154"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="165"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="165"/>
+      <c r="I75" s="165"/>
+      <c r="J75" s="165"/>
+      <c r="K75" s="165"/>
+      <c r="L75" s="165"/>
+      <c r="M75" s="165"/>
+      <c r="N75" s="165"/>
+      <c r="O75" s="165"/>
+      <c r="P75" s="165"/>
       <c r="T75" s="144"/>
     </row>
     <row r="76" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="157" t="s">
+      <c r="A76" s="169" t="s">
         <v>258</v>
       </c>
-      <c r="B76" s="157"/>
-      <c r="C76" s="157"/>
-      <c r="D76" s="157"/>
-      <c r="E76" s="157"/>
-      <c r="F76" s="157"/>
-      <c r="G76" s="157"/>
-      <c r="H76" s="157"/>
-      <c r="I76" s="157"/>
-      <c r="J76" s="157"/>
-      <c r="K76" s="157"/>
-      <c r="L76" s="157"/>
-      <c r="M76" s="157"/>
-      <c r="N76" s="157"/>
-      <c r="O76" s="157"/>
-      <c r="P76" s="157"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
+      <c r="E76" s="169"/>
+      <c r="F76" s="169"/>
+      <c r="G76" s="169"/>
+      <c r="H76" s="169"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="169"/>
+      <c r="K76" s="169"/>
+      <c r="L76" s="169"/>
+      <c r="M76" s="169"/>
+      <c r="N76" s="169"/>
+      <c r="O76" s="169"/>
+      <c r="P76" s="169"/>
       <c r="T76" s="147"/>
     </row>
     <row r="77" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="159" t="s">
+      <c r="A77" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="B77" s="159"/>
-      <c r="C77" s="159"/>
-      <c r="D77" s="159"/>
-      <c r="E77" s="159"/>
-      <c r="F77" s="159"/>
-      <c r="G77" s="159"/>
-      <c r="H77" s="159"/>
-      <c r="I77" s="159"/>
-      <c r="J77" s="159"/>
-      <c r="K77" s="159"/>
-      <c r="L77" s="159"/>
-      <c r="M77" s="159"/>
-      <c r="N77" s="159"/>
-      <c r="O77" s="159"/>
-      <c r="P77" s="159"/>
+      <c r="B77" s="168"/>
+      <c r="C77" s="168"/>
+      <c r="D77" s="168"/>
+      <c r="E77" s="168"/>
+      <c r="F77" s="168"/>
+      <c r="G77" s="168"/>
+      <c r="H77" s="168"/>
+      <c r="I77" s="168"/>
+      <c r="J77" s="168"/>
+      <c r="K77" s="168"/>
+      <c r="L77" s="168"/>
+      <c r="M77" s="168"/>
+      <c r="N77" s="168"/>
+      <c r="O77" s="168"/>
+      <c r="P77" s="168"/>
       <c r="T77" s="147"/>
     </row>
     <row r="78" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="160" t="s">
+      <c r="A78" s="170" t="s">
         <v>260</v>
       </c>
-      <c r="B78" s="160"/>
-      <c r="C78" s="160"/>
-      <c r="D78" s="160"/>
-      <c r="E78" s="160"/>
-      <c r="F78" s="160"/>
-      <c r="G78" s="160"/>
-      <c r="H78" s="160"/>
-      <c r="I78" s="160"/>
-      <c r="J78" s="160"/>
-      <c r="K78" s="160"/>
-      <c r="L78" s="160"/>
-      <c r="M78" s="160"/>
-      <c r="N78" s="160"/>
-      <c r="O78" s="160"/>
-      <c r="P78" s="160"/>
+      <c r="B78" s="170"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
+      <c r="E78" s="170"/>
+      <c r="F78" s="170"/>
+      <c r="G78" s="170"/>
+      <c r="H78" s="170"/>
+      <c r="I78" s="170"/>
+      <c r="J78" s="170"/>
+      <c r="K78" s="170"/>
+      <c r="L78" s="170"/>
+      <c r="M78" s="170"/>
+      <c r="N78" s="170"/>
+      <c r="O78" s="170"/>
+      <c r="P78" s="170"/>
       <c r="T78" s="147"/>
     </row>
     <row r="79" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="159" t="s">
+      <c r="A79" s="168" t="s">
         <v>261</v>
       </c>
-      <c r="B79" s="159"/>
-      <c r="C79" s="159"/>
-      <c r="D79" s="159"/>
-      <c r="E79" s="159"/>
-      <c r="F79" s="159"/>
-      <c r="G79" s="159"/>
-      <c r="H79" s="159"/>
-      <c r="I79" s="159"/>
-      <c r="J79" s="159"/>
-      <c r="K79" s="159"/>
-      <c r="L79" s="159"/>
-      <c r="M79" s="159"/>
-      <c r="N79" s="159"/>
-      <c r="O79" s="159"/>
-      <c r="P79" s="159"/>
+      <c r="B79" s="168"/>
+      <c r="C79" s="168"/>
+      <c r="D79" s="168"/>
+      <c r="E79" s="168"/>
+      <c r="F79" s="168"/>
+      <c r="G79" s="168"/>
+      <c r="H79" s="168"/>
+      <c r="I79" s="168"/>
+      <c r="J79" s="168"/>
+      <c r="K79" s="168"/>
+      <c r="L79" s="168"/>
+      <c r="M79" s="168"/>
+      <c r="N79" s="168"/>
+      <c r="O79" s="168"/>
+      <c r="P79" s="168"/>
       <c r="T79" s="147"/>
     </row>
     <row r="80" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="154" t="s">
+      <c r="A80" s="165" t="s">
         <v>262</v>
       </c>
-      <c r="B80" s="154"/>
-      <c r="C80" s="154"/>
-      <c r="D80" s="154"/>
-      <c r="E80" s="154"/>
-      <c r="F80" s="154"/>
-      <c r="G80" s="154"/>
-      <c r="H80" s="154"/>
-      <c r="I80" s="154"/>
-      <c r="J80" s="154"/>
-      <c r="K80" s="154"/>
-      <c r="L80" s="154"/>
-      <c r="M80" s="154"/>
-      <c r="N80" s="154"/>
-      <c r="O80" s="154"/>
-      <c r="P80" s="154"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="165"/>
+      <c r="F80" s="165"/>
+      <c r="G80" s="165"/>
+      <c r="H80" s="165"/>
+      <c r="I80" s="165"/>
+      <c r="J80" s="165"/>
+      <c r="K80" s="165"/>
+      <c r="L80" s="165"/>
+      <c r="M80" s="165"/>
+      <c r="N80" s="165"/>
+      <c r="O80" s="165"/>
+      <c r="P80" s="165"/>
       <c r="T80" s="147"/>
     </row>
     <row r="81" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="157" t="s">
+      <c r="A81" s="169" t="s">
         <v>263</v>
       </c>
-      <c r="B81" s="157"/>
-      <c r="C81" s="157"/>
-      <c r="D81" s="157"/>
-      <c r="E81" s="157"/>
-      <c r="F81" s="157"/>
-      <c r="G81" s="157"/>
-      <c r="H81" s="157"/>
-      <c r="I81" s="157"/>
-      <c r="J81" s="157"/>
-      <c r="K81" s="157"/>
-      <c r="L81" s="157"/>
-      <c r="M81" s="157"/>
-      <c r="N81" s="157"/>
-      <c r="O81" s="157"/>
-      <c r="P81" s="157"/>
+      <c r="B81" s="169"/>
+      <c r="C81" s="169"/>
+      <c r="D81" s="169"/>
+      <c r="E81" s="169"/>
+      <c r="F81" s="169"/>
+      <c r="G81" s="169"/>
+      <c r="H81" s="169"/>
+      <c r="I81" s="169"/>
+      <c r="J81" s="169"/>
+      <c r="K81" s="169"/>
+      <c r="L81" s="169"/>
+      <c r="M81" s="169"/>
+      <c r="N81" s="169"/>
+      <c r="O81" s="169"/>
+      <c r="P81" s="169"/>
       <c r="T81" s="147"/>
     </row>
     <row r="82" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="159" t="s">
+      <c r="A82" s="168" t="s">
         <v>264</v>
       </c>
-      <c r="B82" s="159"/>
-      <c r="C82" s="159"/>
-      <c r="D82" s="159"/>
-      <c r="E82" s="159"/>
-      <c r="F82" s="159"/>
-      <c r="G82" s="159"/>
-      <c r="H82" s="159"/>
-      <c r="I82" s="159"/>
-      <c r="J82" s="159"/>
-      <c r="K82" s="159"/>
-      <c r="L82" s="159"/>
-      <c r="M82" s="159"/>
-      <c r="N82" s="159"/>
-      <c r="O82" s="159"/>
-      <c r="P82" s="159"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="168"/>
+      <c r="E82" s="168"/>
+      <c r="F82" s="168"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="168"/>
+      <c r="I82" s="168"/>
+      <c r="J82" s="168"/>
+      <c r="K82" s="168"/>
+      <c r="L82" s="168"/>
+      <c r="M82" s="168"/>
+      <c r="N82" s="168"/>
+      <c r="O82" s="168"/>
+      <c r="P82" s="168"/>
       <c r="T82" s="147"/>
     </row>
     <row r="83" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="154" t="s">
+      <c r="A83" s="165" t="s">
         <v>265</v>
       </c>
-      <c r="B83" s="154"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="154"/>
-      <c r="G83" s="154"/>
-      <c r="H83" s="154"/>
-      <c r="I83" s="154"/>
-      <c r="J83" s="154"/>
-      <c r="K83" s="154"/>
-      <c r="L83" s="154"/>
-      <c r="M83" s="154"/>
-      <c r="N83" s="154"/>
-      <c r="O83" s="154"/>
-      <c r="P83" s="154"/>
+      <c r="B83" s="165"/>
+      <c r="C83" s="165"/>
+      <c r="D83" s="165"/>
+      <c r="E83" s="165"/>
+      <c r="F83" s="165"/>
+      <c r="G83" s="165"/>
+      <c r="H83" s="165"/>
+      <c r="I83" s="165"/>
+      <c r="J83" s="165"/>
+      <c r="K83" s="165"/>
+      <c r="L83" s="165"/>
+      <c r="M83" s="165"/>
+      <c r="N83" s="165"/>
+      <c r="O83" s="165"/>
+      <c r="P83" s="165"/>
       <c r="T83" s="147"/>
     </row>
     <row r="84" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="157" t="s">
+      <c r="A84" s="169" t="s">
         <v>266</v>
       </c>
-      <c r="B84" s="157"/>
-      <c r="C84" s="157"/>
-      <c r="D84" s="157"/>
-      <c r="E84" s="157"/>
-      <c r="F84" s="157"/>
-      <c r="G84" s="157"/>
-      <c r="H84" s="157"/>
-      <c r="I84" s="157"/>
-      <c r="J84" s="157"/>
-      <c r="K84" s="157"/>
-      <c r="L84" s="157"/>
-      <c r="M84" s="157"/>
-      <c r="N84" s="157"/>
-      <c r="O84" s="157"/>
-      <c r="P84" s="157"/>
+      <c r="B84" s="169"/>
+      <c r="C84" s="169"/>
+      <c r="D84" s="169"/>
+      <c r="E84" s="169"/>
+      <c r="F84" s="169"/>
+      <c r="G84" s="169"/>
+      <c r="H84" s="169"/>
+      <c r="I84" s="169"/>
+      <c r="J84" s="169"/>
+      <c r="K84" s="169"/>
+      <c r="L84" s="169"/>
+      <c r="M84" s="169"/>
+      <c r="N84" s="169"/>
+      <c r="O84" s="169"/>
+      <c r="P84" s="169"/>
       <c r="T84" s="147"/>
     </row>
     <row r="85" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="159" t="s">
+      <c r="A85" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="B85" s="159"/>
-      <c r="C85" s="159"/>
-      <c r="D85" s="159"/>
-      <c r="E85" s="159"/>
-      <c r="F85" s="159"/>
-      <c r="G85" s="159"/>
-      <c r="H85" s="159"/>
-      <c r="I85" s="159"/>
-      <c r="J85" s="159"/>
-      <c r="K85" s="159"/>
-      <c r="L85" s="159"/>
-      <c r="M85" s="159"/>
-      <c r="N85" s="159"/>
-      <c r="O85" s="159"/>
-      <c r="P85" s="159"/>
+      <c r="B85" s="168"/>
+      <c r="C85" s="168"/>
+      <c r="D85" s="168"/>
+      <c r="E85" s="168"/>
+      <c r="F85" s="168"/>
+      <c r="G85" s="168"/>
+      <c r="H85" s="168"/>
+      <c r="I85" s="168"/>
+      <c r="J85" s="168"/>
+      <c r="K85" s="168"/>
+      <c r="L85" s="168"/>
+      <c r="M85" s="168"/>
+      <c r="N85" s="168"/>
+      <c r="O85" s="168"/>
+      <c r="P85" s="168"/>
       <c r="T85" s="147"/>
     </row>
     <row r="86" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="160" t="s">
+      <c r="A86" s="170" t="s">
         <v>267</v>
       </c>
-      <c r="B86" s="160"/>
-      <c r="C86" s="160"/>
-      <c r="D86" s="160"/>
-      <c r="E86" s="160"/>
-      <c r="F86" s="160"/>
-      <c r="G86" s="160"/>
-      <c r="H86" s="160"/>
-      <c r="I86" s="160"/>
-      <c r="J86" s="160"/>
-      <c r="K86" s="160"/>
-      <c r="L86" s="160"/>
-      <c r="M86" s="160"/>
-      <c r="N86" s="160"/>
-      <c r="O86" s="160"/>
-      <c r="P86" s="160"/>
+      <c r="B86" s="170"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="170"/>
+      <c r="E86" s="170"/>
+      <c r="F86" s="170"/>
+      <c r="G86" s="170"/>
+      <c r="H86" s="170"/>
+      <c r="I86" s="170"/>
+      <c r="J86" s="170"/>
+      <c r="K86" s="170"/>
+      <c r="L86" s="170"/>
+      <c r="M86" s="170"/>
+      <c r="N86" s="170"/>
+      <c r="O86" s="170"/>
+      <c r="P86" s="170"/>
       <c r="T86" s="147"/>
     </row>
     <row r="87" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="159" t="s">
+      <c r="A87" s="168" t="s">
         <v>268</v>
       </c>
-      <c r="B87" s="159"/>
-      <c r="C87" s="159"/>
-      <c r="D87" s="159"/>
-      <c r="E87" s="159"/>
-      <c r="F87" s="159"/>
-      <c r="G87" s="159"/>
-      <c r="H87" s="159"/>
-      <c r="I87" s="159"/>
-      <c r="J87" s="159"/>
-      <c r="K87" s="159"/>
-      <c r="L87" s="159"/>
-      <c r="M87" s="159"/>
-      <c r="N87" s="159"/>
-      <c r="O87" s="159"/>
-      <c r="P87" s="159"/>
+      <c r="B87" s="168"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
+      <c r="F87" s="168"/>
+      <c r="G87" s="168"/>
+      <c r="H87" s="168"/>
+      <c r="I87" s="168"/>
+      <c r="J87" s="168"/>
+      <c r="K87" s="168"/>
+      <c r="L87" s="168"/>
+      <c r="M87" s="168"/>
+      <c r="N87" s="168"/>
+      <c r="O87" s="168"/>
+      <c r="P87" s="168"/>
       <c r="T87" s="147"/>
     </row>
     <row r="88" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="154" t="s">
+      <c r="A88" s="165" t="s">
         <v>269</v>
       </c>
-      <c r="B88" s="154"/>
-      <c r="C88" s="154"/>
-      <c r="D88" s="154"/>
-      <c r="E88" s="154"/>
-      <c r="F88" s="154"/>
-      <c r="G88" s="154"/>
-      <c r="H88" s="154"/>
-      <c r="I88" s="154"/>
-      <c r="J88" s="154"/>
-      <c r="K88" s="154"/>
-      <c r="L88" s="154"/>
-      <c r="M88" s="154"/>
-      <c r="N88" s="154"/>
-      <c r="O88" s="154"/>
-      <c r="P88" s="154"/>
+      <c r="B88" s="165"/>
+      <c r="C88" s="165"/>
+      <c r="D88" s="165"/>
+      <c r="E88" s="165"/>
+      <c r="F88" s="165"/>
+      <c r="G88" s="165"/>
+      <c r="H88" s="165"/>
+      <c r="I88" s="165"/>
+      <c r="J88" s="165"/>
+      <c r="K88" s="165"/>
+      <c r="L88" s="165"/>
+      <c r="M88" s="165"/>
+      <c r="N88" s="165"/>
+      <c r="O88" s="165"/>
+      <c r="P88" s="165"/>
       <c r="T88" s="147"/>
     </row>
     <row r="89" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="157" t="s">
+      <c r="A89" s="169" t="s">
         <v>270</v>
       </c>
-      <c r="B89" s="157"/>
-      <c r="C89" s="157"/>
-      <c r="D89" s="157"/>
-      <c r="E89" s="157"/>
-      <c r="F89" s="157"/>
-      <c r="G89" s="157"/>
-      <c r="H89" s="157"/>
-      <c r="I89" s="157"/>
-      <c r="J89" s="157"/>
-      <c r="K89" s="157"/>
-      <c r="L89" s="157"/>
-      <c r="M89" s="157"/>
-      <c r="N89" s="157"/>
-      <c r="O89" s="157"/>
-      <c r="P89" s="157"/>
+      <c r="B89" s="169"/>
+      <c r="C89" s="169"/>
+      <c r="D89" s="169"/>
+      <c r="E89" s="169"/>
+      <c r="F89" s="169"/>
+      <c r="G89" s="169"/>
+      <c r="H89" s="169"/>
+      <c r="I89" s="169"/>
+      <c r="J89" s="169"/>
+      <c r="K89" s="169"/>
+      <c r="L89" s="169"/>
+      <c r="M89" s="169"/>
+      <c r="N89" s="169"/>
+      <c r="O89" s="169"/>
+      <c r="P89" s="169"/>
       <c r="T89" s="147"/>
     </row>
     <row r="90" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="159" t="s">
+      <c r="A90" s="168" t="s">
         <v>264</v>
       </c>
-      <c r="B90" s="159"/>
-      <c r="C90" s="159"/>
-      <c r="D90" s="159"/>
-      <c r="E90" s="159"/>
-      <c r="F90" s="159"/>
-      <c r="G90" s="159"/>
-      <c r="H90" s="159"/>
-      <c r="I90" s="159"/>
-      <c r="J90" s="159"/>
-      <c r="K90" s="159"/>
-      <c r="L90" s="159"/>
-      <c r="M90" s="159"/>
-      <c r="N90" s="159"/>
-      <c r="O90" s="159"/>
-      <c r="P90" s="159"/>
+      <c r="B90" s="168"/>
+      <c r="C90" s="168"/>
+      <c r="D90" s="168"/>
+      <c r="E90" s="168"/>
+      <c r="F90" s="168"/>
+      <c r="G90" s="168"/>
+      <c r="H90" s="168"/>
+      <c r="I90" s="168"/>
+      <c r="J90" s="168"/>
+      <c r="K90" s="168"/>
+      <c r="L90" s="168"/>
+      <c r="M90" s="168"/>
+      <c r="N90" s="168"/>
+      <c r="O90" s="168"/>
+      <c r="P90" s="168"/>
       <c r="T90" s="147"/>
     </row>
     <row r="91" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="167" t="s">
         <v>271</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
-      <c r="H91" s="156"/>
-      <c r="I91" s="156"/>
-      <c r="J91" s="156"/>
-      <c r="K91" s="156"/>
-      <c r="L91" s="156"/>
-      <c r="M91" s="156"/>
-      <c r="N91" s="156"/>
-      <c r="O91" s="156"/>
-      <c r="P91" s="156"/>
+      <c r="B91" s="167"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
+      <c r="E91" s="167"/>
+      <c r="F91" s="167"/>
+      <c r="G91" s="167"/>
+      <c r="H91" s="167"/>
+      <c r="I91" s="167"/>
+      <c r="J91" s="167"/>
+      <c r="K91" s="167"/>
+      <c r="L91" s="167"/>
+      <c r="M91" s="167"/>
+      <c r="N91" s="167"/>
+      <c r="O91" s="167"/>
+      <c r="P91" s="167"/>
       <c r="T91" s="147"/>
     </row>
     <row r="92" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="155" t="s">
+      <c r="A92" s="159" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="155"/>
-      <c r="C92" s="155"/>
-      <c r="D92" s="155"/>
-      <c r="E92" s="155"/>
-      <c r="F92" s="155"/>
-      <c r="G92" s="155"/>
-      <c r="H92" s="155"/>
-      <c r="I92" s="155"/>
-      <c r="J92" s="155"/>
-      <c r="K92" s="155"/>
-      <c r="L92" s="155"/>
-      <c r="M92" s="155"/>
-      <c r="N92" s="155"/>
-      <c r="O92" s="155"/>
-      <c r="P92" s="155"/>
+      <c r="B92" s="159"/>
+      <c r="C92" s="159"/>
+      <c r="D92" s="159"/>
+      <c r="E92" s="159"/>
+      <c r="F92" s="159"/>
+      <c r="G92" s="159"/>
+      <c r="H92" s="159"/>
+      <c r="I92" s="159"/>
+      <c r="J92" s="159"/>
+      <c r="K92" s="159"/>
+      <c r="L92" s="159"/>
+      <c r="M92" s="159"/>
+      <c r="N92" s="159"/>
+      <c r="O92" s="159"/>
+      <c r="P92" s="159"/>
       <c r="T92" s="147"/>
     </row>
     <row r="93" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="155" t="s">
+      <c r="A93" s="159" t="s">
         <v>273</v>
       </c>
-      <c r="B93" s="155"/>
-      <c r="C93" s="155"/>
-      <c r="D93" s="155"/>
-      <c r="E93" s="155"/>
-      <c r="F93" s="155"/>
-      <c r="G93" s="155"/>
-      <c r="H93" s="155"/>
-      <c r="I93" s="155"/>
-      <c r="J93" s="155"/>
-      <c r="K93" s="155"/>
-      <c r="L93" s="155"/>
-      <c r="M93" s="155"/>
-      <c r="N93" s="155"/>
-      <c r="O93" s="155"/>
-      <c r="P93" s="155"/>
+      <c r="B93" s="159"/>
+      <c r="C93" s="159"/>
+      <c r="D93" s="159"/>
+      <c r="E93" s="159"/>
+      <c r="F93" s="159"/>
+      <c r="G93" s="159"/>
+      <c r="H93" s="159"/>
+      <c r="I93" s="159"/>
+      <c r="J93" s="159"/>
+      <c r="K93" s="159"/>
+      <c r="L93" s="159"/>
+      <c r="M93" s="159"/>
+      <c r="N93" s="159"/>
+      <c r="O93" s="159"/>
+      <c r="P93" s="159"/>
       <c r="T93" s="147"/>
     </row>
     <row r="94" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="156" t="s">
+      <c r="A94" s="167" t="s">
         <v>274</v>
       </c>
-      <c r="B94" s="156"/>
-      <c r="C94" s="156"/>
-      <c r="D94" s="156"/>
-      <c r="E94" s="156"/>
-      <c r="F94" s="156"/>
-      <c r="G94" s="156"/>
-      <c r="H94" s="156"/>
-      <c r="I94" s="156"/>
-      <c r="J94" s="156"/>
-      <c r="K94" s="156"/>
-      <c r="L94" s="156"/>
-      <c r="M94" s="156"/>
-      <c r="N94" s="156"/>
-      <c r="O94" s="156"/>
-      <c r="P94" s="156"/>
+      <c r="B94" s="167"/>
+      <c r="C94" s="167"/>
+      <c r="D94" s="167"/>
+      <c r="E94" s="167"/>
+      <c r="F94" s="167"/>
+      <c r="G94" s="167"/>
+      <c r="H94" s="167"/>
+      <c r="I94" s="167"/>
+      <c r="J94" s="167"/>
+      <c r="K94" s="167"/>
+      <c r="L94" s="167"/>
+      <c r="M94" s="167"/>
+      <c r="N94" s="167"/>
+      <c r="O94" s="167"/>
+      <c r="P94" s="167"/>
       <c r="T94" s="147"/>
     </row>
     <row r="95" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="155" t="s">
+      <c r="A95" s="159" t="s">
         <v>275</v>
       </c>
-      <c r="B95" s="155"/>
-      <c r="C95" s="155"/>
-      <c r="D95" s="155"/>
-      <c r="E95" s="155"/>
-      <c r="F95" s="155"/>
-      <c r="G95" s="155"/>
-      <c r="H95" s="155"/>
-      <c r="I95" s="155"/>
-      <c r="J95" s="155"/>
-      <c r="K95" s="155"/>
-      <c r="L95" s="155"/>
-      <c r="M95" s="155"/>
-      <c r="N95" s="155"/>
-      <c r="O95" s="155"/>
-      <c r="P95" s="155"/>
+      <c r="B95" s="159"/>
+      <c r="C95" s="159"/>
+      <c r="D95" s="159"/>
+      <c r="E95" s="159"/>
+      <c r="F95" s="159"/>
+      <c r="G95" s="159"/>
+      <c r="H95" s="159"/>
+      <c r="I95" s="159"/>
+      <c r="J95" s="159"/>
+      <c r="K95" s="159"/>
+      <c r="L95" s="159"/>
+      <c r="M95" s="159"/>
+      <c r="N95" s="159"/>
+      <c r="O95" s="159"/>
+      <c r="P95" s="159"/>
       <c r="T95" s="147"/>
     </row>
     <row r="96" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="156" t="s">
+      <c r="A96" s="167" t="s">
         <v>276</v>
       </c>
-      <c r="B96" s="156"/>
-      <c r="C96" s="156"/>
-      <c r="D96" s="156"/>
-      <c r="E96" s="156"/>
-      <c r="F96" s="156"/>
-      <c r="G96" s="156"/>
-      <c r="H96" s="156"/>
-      <c r="I96" s="156"/>
-      <c r="J96" s="156"/>
-      <c r="K96" s="156"/>
-      <c r="L96" s="156"/>
-      <c r="M96" s="156"/>
-      <c r="N96" s="156"/>
-      <c r="O96" s="156"/>
-      <c r="P96" s="156"/>
+      <c r="B96" s="167"/>
+      <c r="C96" s="167"/>
+      <c r="D96" s="167"/>
+      <c r="E96" s="167"/>
+      <c r="F96" s="167"/>
+      <c r="G96" s="167"/>
+      <c r="H96" s="167"/>
+      <c r="I96" s="167"/>
+      <c r="J96" s="167"/>
+      <c r="K96" s="167"/>
+      <c r="L96" s="167"/>
+      <c r="M96" s="167"/>
+      <c r="N96" s="167"/>
+      <c r="O96" s="167"/>
+      <c r="P96" s="167"/>
       <c r="T96" s="147"/>
     </row>
     <row r="97" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="154" t="s">
+      <c r="A97" s="165" t="s">
         <v>277</v>
       </c>
-      <c r="B97" s="154"/>
-      <c r="C97" s="154"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="154"/>
-      <c r="F97" s="154"/>
-      <c r="G97" s="154"/>
-      <c r="H97" s="154"/>
-      <c r="I97" s="154"/>
-      <c r="J97" s="154"/>
-      <c r="K97" s="154"/>
-      <c r="L97" s="154"/>
-      <c r="M97" s="154"/>
-      <c r="N97" s="154"/>
-      <c r="O97" s="154"/>
-      <c r="P97" s="154"/>
+      <c r="B97" s="165"/>
+      <c r="C97" s="165"/>
+      <c r="D97" s="165"/>
+      <c r="E97" s="165"/>
+      <c r="F97" s="165"/>
+      <c r="G97" s="165"/>
+      <c r="H97" s="165"/>
+      <c r="I97" s="165"/>
+      <c r="J97" s="165"/>
+      <c r="K97" s="165"/>
+      <c r="L97" s="165"/>
+      <c r="M97" s="165"/>
+      <c r="N97" s="165"/>
+      <c r="O97" s="165"/>
+      <c r="P97" s="165"/>
       <c r="T97" s="147"/>
     </row>
     <row r="98" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="155" t="s">
+      <c r="A98" s="159" t="s">
         <v>278</v>
       </c>
-      <c r="B98" s="155"/>
-      <c r="C98" s="155"/>
-      <c r="D98" s="155"/>
-      <c r="E98" s="155"/>
-      <c r="F98" s="155"/>
-      <c r="G98" s="155"/>
-      <c r="H98" s="155"/>
-      <c r="I98" s="155"/>
-      <c r="J98" s="155"/>
-      <c r="K98" s="155"/>
-      <c r="L98" s="155"/>
-      <c r="M98" s="155"/>
-      <c r="N98" s="155"/>
-      <c r="O98" s="155"/>
-      <c r="P98" s="155"/>
+      <c r="B98" s="159"/>
+      <c r="C98" s="159"/>
+      <c r="D98" s="159"/>
+      <c r="E98" s="159"/>
+      <c r="F98" s="159"/>
+      <c r="G98" s="159"/>
+      <c r="H98" s="159"/>
+      <c r="I98" s="159"/>
+      <c r="J98" s="159"/>
+      <c r="K98" s="159"/>
+      <c r="L98" s="159"/>
+      <c r="M98" s="159"/>
+      <c r="N98" s="159"/>
+      <c r="O98" s="159"/>
+      <c r="P98" s="159"/>
       <c r="T98" s="147"/>
     </row>
     <row r="99" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="155" t="s">
+      <c r="A99" s="159" t="s">
         <v>279</v>
       </c>
-      <c r="B99" s="155"/>
-      <c r="C99" s="155"/>
-      <c r="D99" s="155"/>
-      <c r="E99" s="155"/>
-      <c r="F99" s="155"/>
-      <c r="G99" s="155"/>
-      <c r="H99" s="155"/>
-      <c r="I99" s="155"/>
-      <c r="J99" s="155"/>
-      <c r="K99" s="155"/>
-      <c r="L99" s="155"/>
-      <c r="M99" s="155"/>
-      <c r="N99" s="155"/>
-      <c r="O99" s="155"/>
-      <c r="P99" s="155"/>
+      <c r="B99" s="159"/>
+      <c r="C99" s="159"/>
+      <c r="D99" s="159"/>
+      <c r="E99" s="159"/>
+      <c r="F99" s="159"/>
+      <c r="G99" s="159"/>
+      <c r="H99" s="159"/>
+      <c r="I99" s="159"/>
+      <c r="J99" s="159"/>
+      <c r="K99" s="159"/>
+      <c r="L99" s="159"/>
+      <c r="M99" s="159"/>
+      <c r="N99" s="159"/>
+      <c r="O99" s="159"/>
+      <c r="P99" s="159"/>
       <c r="T99" s="147"/>
     </row>
     <row r="100" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="155" t="s">
+      <c r="A100" s="159" t="s">
         <v>280</v>
       </c>
-      <c r="B100" s="155"/>
-      <c r="C100" s="155"/>
-      <c r="D100" s="155"/>
-      <c r="E100" s="155"/>
-      <c r="F100" s="155"/>
-      <c r="G100" s="155"/>
-      <c r="H100" s="155"/>
-      <c r="I100" s="155"/>
-      <c r="J100" s="155"/>
-      <c r="K100" s="155"/>
-      <c r="L100" s="155"/>
-      <c r="M100" s="155"/>
-      <c r="N100" s="155"/>
-      <c r="O100" s="155"/>
-      <c r="P100" s="155"/>
+      <c r="B100" s="159"/>
+      <c r="C100" s="159"/>
+      <c r="D100" s="159"/>
+      <c r="E100" s="159"/>
+      <c r="F100" s="159"/>
+      <c r="G100" s="159"/>
+      <c r="H100" s="159"/>
+      <c r="I100" s="159"/>
+      <c r="J100" s="159"/>
+      <c r="K100" s="159"/>
+      <c r="L100" s="159"/>
+      <c r="M100" s="159"/>
+      <c r="N100" s="159"/>
+      <c r="O100" s="159"/>
+      <c r="P100" s="159"/>
       <c r="T100" s="147"/>
     </row>
     <row r="101" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="156" t="s">
+      <c r="A101" s="167" t="s">
         <v>281</v>
       </c>
-      <c r="B101" s="156"/>
-      <c r="C101" s="156"/>
-      <c r="D101" s="156"/>
-      <c r="E101" s="156"/>
-      <c r="F101" s="156"/>
-      <c r="G101" s="156"/>
-      <c r="H101" s="156"/>
-      <c r="I101" s="156"/>
-      <c r="J101" s="156"/>
-      <c r="K101" s="156"/>
-      <c r="L101" s="156"/>
-      <c r="M101" s="156"/>
-      <c r="N101" s="156"/>
-      <c r="O101" s="156"/>
-      <c r="P101" s="156"/>
+      <c r="B101" s="167"/>
+      <c r="C101" s="167"/>
+      <c r="D101" s="167"/>
+      <c r="E101" s="167"/>
+      <c r="F101" s="167"/>
+      <c r="G101" s="167"/>
+      <c r="H101" s="167"/>
+      <c r="I101" s="167"/>
+      <c r="J101" s="167"/>
+      <c r="K101" s="167"/>
+      <c r="L101" s="167"/>
+      <c r="M101" s="167"/>
+      <c r="N101" s="167"/>
+      <c r="O101" s="167"/>
+      <c r="P101" s="167"/>
       <c r="T101" s="147"/>
     </row>
     <row r="102" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="154" t="s">
+      <c r="A102" s="165" t="s">
         <v>282</v>
       </c>
-      <c r="B102" s="154"/>
-      <c r="C102" s="154"/>
-      <c r="D102" s="154"/>
-      <c r="E102" s="154"/>
-      <c r="F102" s="154"/>
-      <c r="G102" s="154"/>
-      <c r="H102" s="154"/>
-      <c r="I102" s="154"/>
-      <c r="J102" s="154"/>
-      <c r="K102" s="154"/>
-      <c r="L102" s="154"/>
-      <c r="M102" s="154"/>
-      <c r="N102" s="154"/>
-      <c r="O102" s="154"/>
-      <c r="P102" s="154"/>
+      <c r="B102" s="165"/>
+      <c r="C102" s="165"/>
+      <c r="D102" s="165"/>
+      <c r="E102" s="165"/>
+      <c r="F102" s="165"/>
+      <c r="G102" s="165"/>
+      <c r="H102" s="165"/>
+      <c r="I102" s="165"/>
+      <c r="J102" s="165"/>
+      <c r="K102" s="165"/>
+      <c r="L102" s="165"/>
+      <c r="M102" s="165"/>
+      <c r="N102" s="165"/>
+      <c r="O102" s="165"/>
+      <c r="P102" s="165"/>
       <c r="T102" s="147"/>
     </row>
     <row r="103" spans="1:20" s="146" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="157" t="s">
+      <c r="A103" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="B103" s="157"/>
-      <c r="C103" s="157"/>
-      <c r="D103" s="157"/>
-      <c r="E103" s="157"/>
-      <c r="F103" s="157"/>
-      <c r="G103" s="157"/>
-      <c r="H103" s="157"/>
-      <c r="I103" s="157"/>
-      <c r="J103" s="157"/>
-      <c r="K103" s="157"/>
-      <c r="L103" s="157"/>
-      <c r="M103" s="157"/>
-      <c r="N103" s="157"/>
-      <c r="O103" s="157"/>
-      <c r="P103" s="157"/>
+      <c r="B103" s="169"/>
+      <c r="C103" s="169"/>
+      <c r="D103" s="169"/>
+      <c r="E103" s="169"/>
+      <c r="F103" s="169"/>
+      <c r="G103" s="169"/>
+      <c r="H103" s="169"/>
+      <c r="I103" s="169"/>
+      <c r="J103" s="169"/>
+      <c r="K103" s="169"/>
+      <c r="L103" s="169"/>
+      <c r="M103" s="169"/>
+      <c r="N103" s="169"/>
+      <c r="O103" s="169"/>
+      <c r="P103" s="169"/>
       <c r="T103" s="147"/>
     </row>
     <row r="104" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="154" t="s">
+      <c r="A104" s="165" t="s">
         <v>284</v>
       </c>
-      <c r="B104" s="154"/>
-      <c r="C104" s="154"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="154"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="154"/>
-      <c r="H104" s="154"/>
-      <c r="I104" s="154"/>
-      <c r="J104" s="154"/>
-      <c r="K104" s="154"/>
-      <c r="L104" s="154"/>
-      <c r="M104" s="154"/>
-      <c r="N104" s="154"/>
-      <c r="O104" s="154"/>
-      <c r="P104" s="154"/>
+      <c r="B104" s="165"/>
+      <c r="C104" s="165"/>
+      <c r="D104" s="165"/>
+      <c r="E104" s="165"/>
+      <c r="F104" s="165"/>
+      <c r="G104" s="165"/>
+      <c r="H104" s="165"/>
+      <c r="I104" s="165"/>
+      <c r="J104" s="165"/>
+      <c r="K104" s="165"/>
+      <c r="L104" s="165"/>
+      <c r="M104" s="165"/>
+      <c r="N104" s="165"/>
+      <c r="O104" s="165"/>
+      <c r="P104" s="165"/>
       <c r="T104" s="147"/>
     </row>
     <row r="105" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="158" t="s">
+      <c r="A105" s="172" t="s">
         <v>285</v>
       </c>
-      <c r="B105" s="158"/>
-      <c r="C105" s="158"/>
-      <c r="D105" s="158"/>
-      <c r="E105" s="158"/>
-      <c r="F105" s="158"/>
-      <c r="G105" s="158"/>
-      <c r="H105" s="158"/>
-      <c r="I105" s="158"/>
-      <c r="J105" s="158"/>
-      <c r="K105" s="158"/>
-      <c r="L105" s="158"/>
-      <c r="M105" s="158"/>
-      <c r="N105" s="158"/>
-      <c r="O105" s="158"/>
-      <c r="P105" s="158"/>
+      <c r="B105" s="172"/>
+      <c r="C105" s="172"/>
+      <c r="D105" s="172"/>
+      <c r="E105" s="172"/>
+      <c r="F105" s="172"/>
+      <c r="G105" s="172"/>
+      <c r="H105" s="172"/>
+      <c r="I105" s="172"/>
+      <c r="J105" s="172"/>
+      <c r="K105" s="172"/>
+      <c r="L105" s="172"/>
+      <c r="M105" s="172"/>
+      <c r="N105" s="172"/>
+      <c r="O105" s="172"/>
+      <c r="P105" s="172"/>
       <c r="T105" s="147"/>
     </row>
     <row r="106" spans="1:20" s="146" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="153" t="s">
+      <c r="A106" s="171" t="s">
         <v>286</v>
       </c>
-      <c r="B106" s="153"/>
-      <c r="C106" s="153"/>
-      <c r="D106" s="153"/>
-      <c r="E106" s="153"/>
-      <c r="F106" s="153"/>
-      <c r="G106" s="153"/>
-      <c r="H106" s="153"/>
-      <c r="I106" s="153"/>
-      <c r="J106" s="153"/>
-      <c r="K106" s="153"/>
-      <c r="L106" s="153"/>
-      <c r="M106" s="153"/>
-      <c r="N106" s="153"/>
-      <c r="O106" s="153"/>
-      <c r="P106" s="153"/>
+      <c r="B106" s="171"/>
+      <c r="C106" s="171"/>
+      <c r="D106" s="171"/>
+      <c r="E106" s="171"/>
+      <c r="F106" s="171"/>
+      <c r="G106" s="171"/>
+      <c r="H106" s="171"/>
+      <c r="I106" s="171"/>
+      <c r="J106" s="171"/>
+      <c r="K106" s="171"/>
+      <c r="L106" s="171"/>
+      <c r="M106" s="171"/>
+      <c r="N106" s="171"/>
+      <c r="O106" s="171"/>
+      <c r="P106" s="171"/>
       <c r="T106" s="147"/>
     </row>
     <row r="107" spans="1:20" s="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="154" t="s">
+      <c r="A107" s="165" t="s">
         <v>287</v>
       </c>
-      <c r="B107" s="154"/>
-      <c r="C107" s="154"/>
-      <c r="D107" s="154"/>
-      <c r="E107" s="154"/>
-      <c r="F107" s="154"/>
-      <c r="G107" s="154"/>
-      <c r="H107" s="154"/>
-      <c r="I107" s="154"/>
-      <c r="J107" s="154"/>
-      <c r="K107" s="154"/>
-      <c r="L107" s="154"/>
-      <c r="M107" s="154"/>
-      <c r="N107" s="154"/>
-      <c r="O107" s="154"/>
-      <c r="P107" s="154"/>
+      <c r="B107" s="165"/>
+      <c r="C107" s="165"/>
+      <c r="D107" s="165"/>
+      <c r="E107" s="165"/>
+      <c r="F107" s="165"/>
+      <c r="G107" s="165"/>
+      <c r="H107" s="165"/>
+      <c r="I107" s="165"/>
+      <c r="J107" s="165"/>
+      <c r="K107" s="165"/>
+      <c r="L107" s="165"/>
+      <c r="M107" s="165"/>
+      <c r="N107" s="165"/>
+      <c r="O107" s="165"/>
+      <c r="P107" s="165"/>
       <c r="T107" s="147"/>
     </row>
     <row r="108" spans="1:20" s="146" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="155" t="s">
+      <c r="A108" s="159" t="s">
         <v>288</v>
       </c>
-      <c r="B108" s="155"/>
-      <c r="C108" s="155"/>
-      <c r="D108" s="155"/>
-      <c r="E108" s="155"/>
-      <c r="F108" s="155"/>
-      <c r="G108" s="155"/>
-      <c r="H108" s="155"/>
-      <c r="I108" s="155"/>
-      <c r="J108" s="155"/>
-      <c r="K108" s="155"/>
-      <c r="L108" s="155"/>
-      <c r="M108" s="155"/>
-      <c r="N108" s="155"/>
-      <c r="O108" s="155"/>
-      <c r="P108" s="155"/>
+      <c r="B108" s="159"/>
+      <c r="C108" s="159"/>
+      <c r="D108" s="159"/>
+      <c r="E108" s="159"/>
+      <c r="F108" s="159"/>
+      <c r="G108" s="159"/>
+      <c r="H108" s="159"/>
+      <c r="I108" s="159"/>
+      <c r="J108" s="159"/>
+      <c r="K108" s="159"/>
+      <c r="L108" s="159"/>
+      <c r="M108" s="159"/>
+      <c r="N108" s="159"/>
+      <c r="O108" s="159"/>
+      <c r="P108" s="159"/>
       <c r="T108" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A38:P38"/>
+    <mergeCell ref="A106:P106"/>
+    <mergeCell ref="A107:P107"/>
+    <mergeCell ref="A108:P108"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="A101:P101"/>
+    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A103:P103"/>
+    <mergeCell ref="A104:P104"/>
+    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A99:P99"/>
+    <mergeCell ref="A88:P88"/>
+    <mergeCell ref="A89:P89"/>
+    <mergeCell ref="A90:P90"/>
+    <mergeCell ref="A91:P91"/>
+    <mergeCell ref="A92:P92"/>
+    <mergeCell ref="A93:P93"/>
+    <mergeCell ref="A94:P94"/>
+    <mergeCell ref="A95:P95"/>
+    <mergeCell ref="A96:P96"/>
+    <mergeCell ref="A97:P97"/>
+    <mergeCell ref="A98:P98"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A77:P77"/>
+    <mergeCell ref="A78:P78"/>
+    <mergeCell ref="A79:P79"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A81:P81"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A86:P86"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A64:P64"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A66:P66"/>
+    <mergeCell ref="A67:P67"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A71:P71"/>
+    <mergeCell ref="A72:P72"/>
+    <mergeCell ref="A73:P73"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A63:P63"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:P57"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="A62:P62"/>
     <mergeCell ref="A51:P51"/>
     <mergeCell ref="A40:P40"/>
     <mergeCell ref="A41:P41"/>
@@ -10365,70 +10121,19 @@
     <mergeCell ref="A48:P48"/>
     <mergeCell ref="A49:P49"/>
     <mergeCell ref="A50:P50"/>
-    <mergeCell ref="A63:P63"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A58:P58"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A60:P60"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="A62:P62"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A64:P64"/>
-    <mergeCell ref="A65:P65"/>
-    <mergeCell ref="A66:P66"/>
-    <mergeCell ref="A67:P67"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A69:P69"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A71:P71"/>
-    <mergeCell ref="A72:P72"/>
-    <mergeCell ref="A73:P73"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A87:P87"/>
-    <mergeCell ref="A76:P76"/>
-    <mergeCell ref="A77:P77"/>
-    <mergeCell ref="A78:P78"/>
-    <mergeCell ref="A79:P79"/>
-    <mergeCell ref="A80:P80"/>
-    <mergeCell ref="A81:P81"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A86:P86"/>
-    <mergeCell ref="A99:P99"/>
-    <mergeCell ref="A88:P88"/>
-    <mergeCell ref="A89:P89"/>
-    <mergeCell ref="A90:P90"/>
-    <mergeCell ref="A91:P91"/>
-    <mergeCell ref="A92:P92"/>
-    <mergeCell ref="A93:P93"/>
-    <mergeCell ref="A94:P94"/>
-    <mergeCell ref="A95:P95"/>
-    <mergeCell ref="A96:P96"/>
-    <mergeCell ref="A97:P97"/>
-    <mergeCell ref="A98:P98"/>
-    <mergeCell ref="A106:P106"/>
-    <mergeCell ref="A107:P107"/>
-    <mergeCell ref="A108:P108"/>
-    <mergeCell ref="A100:P100"/>
-    <mergeCell ref="A101:P101"/>
-    <mergeCell ref="A102:P102"/>
-    <mergeCell ref="A103:P103"/>
-    <mergeCell ref="A104:P104"/>
-    <mergeCell ref="A105:P105"/>
+    <mergeCell ref="A39:P39"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A38:P38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10461,33 +10166,33 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="178" t="s">
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="178" t="s">
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="179"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="181" t="s">
+      <c r="M4" s="176"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="178" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="177"/>
+      <c r="B5" s="174"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
@@ -10524,7 +10229,7 @@
       <c r="N5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="182"/>
+      <c r="O5" s="179"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -12772,7 +12477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12854,7 +12559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12974,7 +12679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
